--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\appium-autotest\appium-autotest\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\ci-jenkins-test-app\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567EFD0F-03EA-4F65-B711-4758C5ABDF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFDEBE-539F-4D73-94C6-A7C730FF57D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -20,85 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+  <si>
+    <t>2U0IQB</t>
+  </si>
+  <si>
+    <t>BOlZxu</t>
+  </si>
+  <si>
+    <t>ngocnt</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Bạn có muốn đăng ký tài khoản mới?</t>
+  </si>
+  <si>
+    <t>12-06-24 06:08</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>XfpT2c</t>
-  </si>
-  <si>
-    <t>T3imlE</t>
-  </si>
-  <si>
-    <t>2U0IQB</t>
-  </si>
-  <si>
-    <t>BOlZxu</t>
-  </si>
-  <si>
-    <t>sfxelO</t>
-  </si>
-  <si>
-    <t>RBNGY3</t>
-  </si>
-  <si>
-    <t>uDmRKu</t>
-  </si>
-  <si>
-    <t>jwlmzW</t>
-  </si>
-  <si>
-    <t>eKbxkZ</t>
-  </si>
-  <si>
-    <t>U2uQZA</t>
-  </si>
-  <si>
-    <t>ngocnt</t>
-  </si>
-  <si>
-    <t>Ngoc</t>
-  </si>
-  <si>
-    <t>D0eYiE</t>
-  </si>
-  <si>
-    <t>2GUSJA</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>An element could not be located on the page using the given search parameters.
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.17.0', revision: 'e52b1be057*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.2'
-Driver info: io.appium.java_client.android.AndroidDriver
-Command: [3aef0b6e-9fd7-46dd-89ce-4495fd93f33a, findElement {using=id, value=button_login_home}]
-Capabilities {appium:appActivity: com.example.myapplication.v..., appium:appPackage: com.example.myapplication, appium:automationName: UiAutomator2, appium:databaseEnabled: false, appium:desired: {appActivity: com.example.myapplication.v..., appPackage: com.example.myapplication, automationName: UiAutomator2, deviceName: emulator-5554, platformName: ANDROID}, appium:deviceApiLevel: 34, appium:deviceManufacturer: Google, appium:deviceModel: sdk_gphone64_x86_64, appium:deviceName: emulator-5554, appium:deviceScreenDensity: 440, appium:deviceScreenSize: 1080x2220, appium:deviceUDID: emulator-5554, appium:javascriptEnabled: true, appium:locationContextEnabled: false, appium:networkConnectionEnabled: true, appium:pixelRatio: 2.75, appium:platformVersion: 14, appium:statBarHeight: 66, appium:takesScreenshot: true, appium:viewportRect: {height: 2154, left: 0, top: 66, width: 1080}, appium:warnings: {}, appium:webStorageEnabled: false, platformName: ANDROID}
-Session ID: 3aef0b6e-9fd7-46dd-89ce-4495fd93f33a</t>
-  </si>
-  <si>
-    <t>02-06-24 19:09</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Bạn có muốn đăng ký tài khoản mới?</t>
-  </si>
-  <si>
-    <t>02-06-24 19:10</t>
+    <t>12-06-24 06:13</t>
+  </si>
+  <si>
+    <t>12-06-24 06:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,135 +406,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="44.109375"/>
+    <col min="4" max="4" customWidth="true" width="19.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1234</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="0">
+        <v>123456</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s" s="0">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
